--- a/DDF/Phase2.1/TY_05/TestData.xlsx
+++ b/DDF/Phase2.1/TY_05/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Music\Raghu\DDF\Phase2.1\TY_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonFinalMergedFolder\Bimbo Mobile -19 jan\Bimbo Mobile-TY\DDF\Phase2.1\TY_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Activation Key</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>IEPSANDIVA</t>
+  </si>
+  <si>
+    <t>Trade Coverage</t>
+  </si>
+  <si>
+    <t>ITEMDISC</t>
+  </si>
+  <si>
+    <t>CATEGORYDISC</t>
+  </si>
+  <si>
+    <t>NOITEMDISC</t>
+  </si>
+  <si>
+    <t>NOCATEGORYDISC</t>
   </si>
 </sst>
 </file>
@@ -605,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,7 +633,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -643,11 +658,26 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
       <c r="E2">
         <v>16</v>
       </c>
@@ -660,13 +690,31 @@
       <c r="H2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -676,16 +724,22 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -693,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -701,7 +755,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -709,7 +763,7 @@
         <v>1234.55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -717,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -725,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -733,7 +787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -741,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -752,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -760,7 +814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -768,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>

--- a/DDF/Phase2.1/TY_05/TestData.xlsx
+++ b/DDF/Phase2.1/TY_05/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Activation Key</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>NOCATEGORYDISC</t>
+  </si>
+  <si>
+    <t>DISTDISCOUNT</t>
+  </si>
+  <si>
+    <t>- 0</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,7 +639,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -670,8 +676,11 @@
       <c r="L1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -702,8 +711,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -714,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -728,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -739,7 +751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -747,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -755,7 +767,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -763,7 +775,7 @@
         <v>1234.55</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -771,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -779,7 +791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -787,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -795,7 +807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -806,7 +818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -814,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -822,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
